--- a/resource/Java単元課題4-チェックリスト.xlsx
+++ b/resource/Java単元課題4-チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Documents\研修用フォルダ\Java\Java応用\web-task-mock\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01476CAE-B014-4BD9-B993-56B1EF86B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF6DC3-DA1D-42CF-9FFB-89A57B1E7953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14364" yWindow="7380" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="152">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -1840,6 +1840,9 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
@@ -3258,10 +3261,10 @@
   <dimension ref="B1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3414,7 +3417,9 @@
       <c r="F8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.2">
@@ -3431,7 +3436,9 @@
       <c r="F9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.2">
@@ -3468,7 +3475,9 @@
       <c r="F11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="22"/>
     </row>
@@ -3546,7 +3555,9 @@
       <c r="F15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="22"/>
     </row>
@@ -3566,7 +3577,9 @@
       <c r="F16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="22"/>
     </row>
@@ -3584,7 +3597,9 @@
       <c r="F17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="22"/>
     </row>
@@ -3704,7 +3719,9 @@
       <c r="F23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="22"/>
     </row>
@@ -3722,7 +3739,9 @@
       <c r="F24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="22"/>
     </row>
@@ -3740,7 +3759,9 @@
       <c r="F25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="22"/>
     </row>
@@ -3756,7 +3777,9 @@
       <c r="F26" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="22"/>
     </row>
@@ -3774,7 +3797,9 @@
       <c r="F27" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="22"/>
     </row>
@@ -3794,7 +3819,9 @@
       <c r="F28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="22"/>
     </row>
@@ -3812,7 +3839,9 @@
       <c r="F29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H29" s="26"/>
       <c r="I29" s="22"/>
     </row>
@@ -3830,7 +3859,9 @@
       <c r="F30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="22"/>
     </row>
@@ -3848,7 +3879,9 @@
       <c r="F31" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H31" s="26"/>
       <c r="I31" s="22"/>
     </row>
@@ -3866,7 +3899,9 @@
       <c r="F32" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H32" s="26"/>
       <c r="I32" s="22"/>
     </row>
@@ -3902,7 +3937,9 @@
       <c r="F34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="H34" s="26"/>
       <c r="I34" s="22"/>
     </row>
@@ -3920,7 +3957,9 @@
       <c r="F35" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="H35" s="44"/>
       <c r="I35" s="22"/>
     </row>
@@ -3935,7 +3974,7 @@
       </c>
       <c r="H38" s="32">
         <f>COUNTIF($G$3:$G$35,"=○")</f>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -3944,7 +3983,7 @@
       </c>
       <c r="H39" s="34">
         <f>COUNTIF($G$3:$G$35,"=×")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -3953,7 +3992,7 @@
       </c>
       <c r="H40" s="34">
         <f>COUNTBLANK($G$3:$G$35)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -3962,7 +4001,7 @@
       </c>
       <c r="H41" s="36">
         <f>H38/(H38+H39+H40)</f>
-        <v>0.42424242424242425</v>
+        <v>0.93939393939393945</v>
       </c>
     </row>
   </sheetData>

--- a/resource/Java単元課題4-チェックリスト.xlsx
+++ b/resource/Java単元課題4-チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Documents\研修用フォルダ\Java\Java応用\web-task-mock\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF6DC3-DA1D-42CF-9FFB-89A57B1E7953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC0739-8FB5-4981-A3AB-AF728895B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10344" yWindow="5076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">発展!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="151">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -1840,9 +1841,6 @@
   </si>
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>×</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2531,9 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3260,11 +3255,11 @@
   </sheetPr>
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3305,7 +3300,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7">
@@ -3320,13 +3315,13 @@
       <c r="F3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -3339,13 +3334,13 @@
       <c r="F4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -3358,13 +3353,13 @@
       <c r="F5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="23">
         <v>1.4</v>
       </c>
@@ -3377,13 +3372,13 @@
       <c r="F6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="2:9" ht="36.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7">
@@ -3398,13 +3393,13 @@
       <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -3417,13 +3412,13 @@
       <c r="F8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="23">
         <v>2.2999999999999998</v>
       </c>
@@ -3437,12 +3432,12 @@
         <v>143</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="17">
         <v>2.4</v>
       </c>
@@ -3462,7 +3457,7 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="2:9" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="17">
         <v>2.5</v>
       </c>
@@ -3482,7 +3477,7 @@
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="23">
         <v>2.6</v>
       </c>
@@ -3495,14 +3490,14 @@
       <c r="F12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="17">
         <v>2.7</v>
       </c>
@@ -3522,7 +3517,7 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="23">
         <v>2.8</v>
       </c>
@@ -3542,7 +3537,7 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="23">
         <v>2.9</v>
       </c>
@@ -3562,7 +3557,7 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="7">
@@ -3577,14 +3572,14 @@
       <c r="F16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B17" s="46"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="17">
         <v>3.2</v>
       </c>
@@ -3604,7 +3599,7 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B18" s="46"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="23">
         <v>3.3</v>
       </c>
@@ -3624,7 +3619,7 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B19" s="46"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="17">
         <v>3.4</v>
       </c>
@@ -3644,7 +3639,7 @@
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B20" s="46"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="23">
         <v>3.5</v>
       </c>
@@ -3664,7 +3659,7 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B21" s="46"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="17">
         <v>3.6</v>
       </c>
@@ -3684,7 +3679,7 @@
       <c r="I21" s="22"/>
     </row>
     <row r="22" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="23">
         <v>3.7</v>
       </c>
@@ -3704,7 +3699,7 @@
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="2:9" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="7">
@@ -3719,14 +3714,14 @@
       <c r="F23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B24" s="46"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="17">
         <v>4.2</v>
       </c>
@@ -3746,7 +3741,7 @@
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B25" s="46"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="23">
         <v>4.3</v>
       </c>
@@ -3766,7 +3761,7 @@
       <c r="I25" s="22"/>
     </row>
     <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="B26" s="46"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="23"/>
       <c r="D26" s="18" t="s">
         <v>135</v>
@@ -3784,7 +3779,7 @@
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B27" s="47"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -3804,7 +3799,7 @@
       <c r="I27" s="22"/>
     </row>
     <row r="28" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="23">
@@ -3819,14 +3814,14 @@
       <c r="F28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B29" s="46"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="23">
         <v>5.2</v>
       </c>
@@ -3839,14 +3834,14 @@
       <c r="F29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B30" s="46"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="23">
         <v>5.3</v>
       </c>
@@ -3859,14 +3854,14 @@
       <c r="F30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B31" s="46"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="23">
         <v>5.4</v>
       </c>
@@ -3879,14 +3874,14 @@
       <c r="F31" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B32" s="46"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="23">
         <v>5.5</v>
       </c>
@@ -3899,14 +3894,14 @@
       <c r="F32" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="2:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="B33" s="46"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="23">
         <v>5.6</v>
       </c>
@@ -3919,12 +3914,14 @@
       <c r="F33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="2:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="B34" s="46"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="23">
         <v>5.7</v>
       </c>
@@ -3937,18 +3934,18 @@
       <c r="F34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="2:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="23">
         <v>5.8</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>131</v>
       </c>
       <c r="E35" s="28" t="s">
@@ -3957,10 +3954,10 @@
       <c r="F35" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="44"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="22"/>
     </row>
     <row r="37" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -3974,7 +3971,7 @@
       </c>
       <c r="H38" s="32">
         <f>COUNTIF($G$3:$G$35,"=○")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -3983,7 +3980,7 @@
       </c>
       <c r="H39" s="34">
         <f>COUNTIF($G$3:$G$35,"=×")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -3992,7 +3989,7 @@
       </c>
       <c r="H40" s="34">
         <f>COUNTBLANK($G$3:$G$35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -4001,7 +3998,7 @@
       </c>
       <c r="H41" s="36">
         <f>H38/(H38+H39+H40)</f>
-        <v>0.93939393939393945</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4013,7 +4010,7 @@
     <mergeCell ref="B28:B35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C3:H3 C5:C6 G19:H20 E19:E20 E22:H22 C7:H17 G30:H35 C23:H25 C27:H29 G26:H26 C18:C22 C26:E26 C30:D35">
+  <conditionalFormatting sqref="C3:F3 C5:C6 H19:H20 E19:E20 E22:F22 G35:H35 C23:F25 C27:F29 C18:C22 C26:E26 C30:D35 C9:H10 C11:F17 H11:H17 H22:H34 G11:G34 C7:F8 H7:H8 H3 G3:G8">
     <cfRule type="expression" dxfId="57" priority="51">
       <formula>$G3="×"</formula>
     </cfRule>
@@ -4021,7 +4018,7 @@
       <formula>$G3="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:H6">
+  <conditionalFormatting sqref="D5:F6 H5:H6">
     <cfRule type="expression" dxfId="55" priority="43">
       <formula>$G5="×"</formula>
     </cfRule>
@@ -4029,7 +4026,7 @@
       <formula>$G5="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:H21">
+  <conditionalFormatting sqref="E21:F21 H21">
     <cfRule type="expression" dxfId="53" priority="41">
       <formula>$G21="×"</formula>
     </cfRule>
@@ -4037,7 +4034,7 @@
       <formula>$G21="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:H18">
+  <conditionalFormatting sqref="D18:F18 H18">
     <cfRule type="expression" dxfId="51" priority="39">
       <formula>$G18="×"</formula>
     </cfRule>
@@ -4045,7 +4042,7 @@
       <formula>$G18="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H4">
+  <conditionalFormatting sqref="C4:F4 H4">
     <cfRule type="expression" dxfId="49" priority="37">
       <formula>$G4="×"</formula>
     </cfRule>
@@ -4225,7 +4222,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="7">
@@ -4244,7 +4241,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -4261,7 +4258,7 @@
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -4278,7 +4275,7 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="11">
         <v>1.4</v>
       </c>
@@ -4295,7 +4292,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="7">
@@ -4314,7 +4311,7 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4331,7 +4328,7 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4348,7 +4345,7 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="11">
         <v>2.4</v>
       </c>
@@ -4365,7 +4362,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" ht="90.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="7">
@@ -4384,7 +4381,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="17">
         <v>3.2</v>
       </c>
@@ -4401,7 +4398,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="17">
         <v>3.3</v>
       </c>
@@ -4418,7 +4415,7 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="17">
         <v>3.4</v>
       </c>
@@ -4435,7 +4432,7 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B15" s="46"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="17">
         <v>3.5</v>
       </c>
@@ -4452,7 +4449,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="17">
         <v>3.6</v>
       </c>
@@ -4469,7 +4466,7 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B17" s="46"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="17">
         <v>3.7</v>
       </c>
@@ -4486,7 +4483,7 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="B18" s="46"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17">
         <v>3.8</v>
       </c>
@@ -4503,7 +4500,7 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B19" s="46"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="17">
         <v>3.9</v>
       </c>
@@ -4520,8 +4517,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B20" s="46"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -4537,8 +4534,8 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B21" s="46"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -4554,8 +4551,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B22" s="46"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -4571,8 +4568,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B23" s="46"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="40" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -4588,8 +4585,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B24" s="46"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -4605,8 +4602,8 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B25" s="46"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -4622,8 +4619,8 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B26" s="46"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -4639,8 +4636,8 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -4656,7 +4653,7 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="7">
@@ -4675,7 +4672,7 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="2:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="B29" s="46"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="17">
         <v>4.2</v>
       </c>
@@ -4692,7 +4689,7 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="B30" s="46"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="17">
         <v>4.3</v>
       </c>
@@ -4709,7 +4706,7 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B31" s="46"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -4726,7 +4723,7 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B32" s="46"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="17">
         <v>4.5</v>
       </c>
@@ -4743,7 +4740,7 @@
       <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="11">
         <v>4.5999999999999996</v>
       </c>
@@ -4760,7 +4757,7 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="7">
@@ -4779,7 +4776,7 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="11">
         <v>5.2</v>
       </c>
@@ -4796,7 +4793,7 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="23">
@@ -4815,7 +4812,7 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="2:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="B37" s="46"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="17">
         <v>6.2</v>
       </c>
@@ -4832,7 +4829,7 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="2:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="B38" s="46"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="17">
         <v>6.3</v>
       </c>
@@ -4849,7 +4846,7 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B39" s="46"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="17">
         <v>6.4</v>
       </c>
@@ -4866,7 +4863,7 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="46"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="11">
         <v>6.5</v>
       </c>
@@ -4883,7 +4880,7 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="7">
@@ -4902,7 +4899,7 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B42" s="46"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="17">
         <v>7.2</v>
       </c>
@@ -4919,7 +4916,7 @@
       <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B43" s="46"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="17">
         <v>7.3</v>
       </c>
@@ -4936,7 +4933,7 @@
       <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="46"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="11">
         <v>7.4</v>
       </c>
@@ -4953,7 +4950,7 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="7">
@@ -4972,7 +4969,7 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="27">
         <v>8.1999999999999993</v>
       </c>
